--- a/SU - Suspension/SU_A1000 (Front Upright Assy)/Comparaison gain de poids Vulcanix.xlsx
+++ b/SU - Suspension/SU_A1000 (Front Upright Assy)/Comparaison gain de poids Vulcanix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\SU - Suspension\SU_A1000 (Front Upright Assy)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836408CB-F81F-4320-902F-6F1C279FF780}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7896B3D4-168F-4855-8E2D-CD2264CE49B3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{C2BE0EEA-2237-4FE7-867D-1BD600C24D74}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Pièce</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Vulcanix</t>
   </si>
   <si>
-    <t>Optipute</t>
-  </si>
-  <si>
     <t>Roulements</t>
   </si>
   <si>
@@ -76,6 +73,15 @@
   </si>
   <si>
     <t xml:space="preserve">Gain roulements </t>
+  </si>
+  <si>
+    <t>Optimus</t>
+  </si>
+  <si>
+    <t>estimé</t>
+  </si>
+  <si>
+    <t>certain</t>
   </si>
 </sst>
 </file>
@@ -99,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,8 +124,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -127,21 +139,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,7 +704,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,168 +713,229 @@
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+      <c r="B2" s="9">
         <v>700</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>280</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="14"/>
+      <c r="E2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="20">
         <f>B2+B3-C2-C3</f>
         <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11">
         <f>59+11</f>
         <v>70</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>16+140</f>
         <v>156</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11">
+        <v>889</v>
+      </c>
+      <c r="C4" s="4">
+        <v>750</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>889</v>
-      </c>
-      <c r="C4" s="5">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="11">
+        <v>403</v>
+      </c>
+      <c r="C5" s="4">
+        <v>500</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>403</v>
-      </c>
-      <c r="C5" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="11">
+        <v>243</v>
+      </c>
+      <c r="C6" s="4">
+        <v>70</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>243</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B7" s="11">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" s="4">
+        <v>32</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>70</v>
-      </c>
-      <c r="C7" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="11">
+        <v>467</v>
+      </c>
+      <c r="C8" s="4">
+        <v>120</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>467</v>
-      </c>
-      <c r="C8" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" s="11">
+        <v>3400</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2450</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>3400</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" s="11">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>26</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B11" s="11">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="13">
+        <v>162</v>
+      </c>
+      <c r="C12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-      <c r="C11" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>162</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="16">
+        <f>SUM(B2:B12)</f>
+        <v>6447</v>
+      </c>
+      <c r="C14" s="18">
+        <f>SUM(C2:C12)</f>
+        <v>4402</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <f>SUM(B2:B12)</f>
-        <v>6480</v>
-      </c>
-      <c r="C14">
-        <f>SUM(C2:C12)</f>
-        <v>4428</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+      <c r="B16" s="17">
         <f>(B14-C14)*2</f>
-        <v>4104</v>
-      </c>
+        <v>4090</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SU - Suspension/SU_A1000 (Front Upright Assy)/Comparaison gain de poids Vulcanix.xlsx
+++ b/SU - Suspension/SU_A1000 (Front Upright Assy)/Comparaison gain de poids Vulcanix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\SU - Suspension\SU_A1000 (Front Upright Assy)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7896B3D4-168F-4855-8E2D-CD2264CE49B3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3244F9-F014-4E60-B70C-31ED57FCF8A9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{C2BE0EEA-2237-4FE7-867D-1BD600C24D74}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Pièce</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>certain</t>
+  </si>
+  <si>
+    <t>Gain roues arrière</t>
+  </si>
+  <si>
+    <t>Entretoise Tripod housing</t>
+  </si>
+  <si>
+    <t>Etrier frein</t>
   </si>
 </sst>
 </file>
@@ -701,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9191D719-2A27-4FBD-A6EA-959C5A2389BD}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,6 +946,194 @@
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
     </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="9">
+        <v>280</v>
+      </c>
+      <c r="C21" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="11">
+        <v>823</v>
+      </c>
+      <c r="C23" s="4">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="11">
+        <v>565</v>
+      </c>
+      <c r="C24" s="4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="11">
+        <v>328</v>
+      </c>
+      <c r="C25" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="11">
+        <v>133</v>
+      </c>
+      <c r="C26" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="11">
+        <v>375</v>
+      </c>
+      <c r="C27" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="11">
+        <v>3400</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="11">
+        <v>48</v>
+      </c>
+      <c r="C29" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="11">
+        <v>26</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="11">
+        <v>606</v>
+      </c>
+      <c r="C31" s="4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="11">
+        <v>38</v>
+      </c>
+      <c r="C32" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="13">
+        <v>130</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+    </row>
+    <row r="35" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="16">
+        <f>SUM(B21:B33)</f>
+        <v>6752</v>
+      </c>
+      <c r="C35" s="18">
+        <f>SUM(C21:C33)</f>
+        <v>4926</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="17">
+        <f>(B35-C35)*2</f>
+        <v>3652</v>
+      </c>
+      <c r="C37" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
